--- a/biology/Botanique/Achariaceae/Achariaceae.xlsx
+++ b/biology/Botanique/Achariaceae/Achariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Achariaceae regroupe des plantes dicotylédones ; elle comprend 165 espèces réparties entre 31 genres.
 Ce sont des plantes herbacées ou des arbustes, endémiques d'Afrique du Sud.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Acharia, dont l'étymologie est controversée. Pour certains, il s'agirait du nom latinisé du grec αχάρης / acharis,  « manque de grâce, maladresse, désagréable »[1]. Pour d'autres, le nom aurait été donné en hommage au botaniste suédois Erik Acharius (1757-1819)[2], pionnier de la taxinomie des lichens et considéré comme le père de la lichenologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Acharia, dont l'étymologie est controversée. Pour certains, il s'agirait du nom latinisé du grec αχάρης / acharis,  « manque de grâce, maladresse, désagréable ». Pour d'autres, le nom aurait été donné en hommage au botaniste suédois Erik Acharius (1757-1819), pionnier de la taxinomie des lichens et considéré comme le père de la lichenologie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Malpighiales et lui attribue une partie de la famille des Flacourtiaceae.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (14 mai 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (14 mai 2010) :
 Acharia
 Ahernia
 Baileyoxylon
@@ -608,7 +626,7 @@
 Scottellia
 Trichadenia
 Xylotheca
-Selon NCBI  (14 mai 2010)[4] :
+Selon NCBI  (14 mai 2010) :
 tribu Acharieae
 Acharia
 Ceratiosicyos
@@ -633,7 +651,7 @@
 Ryparosa
 Trichadenia
 Xylotheca
-Selon DELTA Angio           (14 mai 2010)[5] :
+Selon DELTA Angio           (14 mai 2010) :
 Acharia
 Ceratiosicyos
 Guthriea</t>
@@ -664,9 +682,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 mai 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 mai 2010) :
 tribu Acharieae
 genre Acharia
 Acharia tragodes (en)
